--- a/pictures/ac608.xlsx
+++ b/pictures/ac608.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Hárok3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hárok1!$A$2:$H$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hárok1!$A$2:$H$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hárok3!$A$2:$E$255</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="699">
   <si>
     <t>set_instance_assignment -name IO_STANDARD "3.3-V LVTTL" -to sdram_addr[12]</t>
   </si>
@@ -2115,6 +2115,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>L03</t>
   </si>
 </sst>
 </file>
@@ -2441,13 +2453,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M247" sqref="M247"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2491,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>525</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>526</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>45</v>
       </c>
@@ -2563,7 +2576,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>42</v>
       </c>
@@ -2640,7 +2653,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>468</v>
       </c>
@@ -2648,7 +2661,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>51</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>530</v>
       </c>
@@ -2714,7 +2727,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>531</v>
       </c>
@@ -2722,7 +2735,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>48</v>
       </c>
@@ -2736,7 +2749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>43</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>417</v>
       </c>
@@ -2810,7 +2823,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>534</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>52</v>
       </c>
@@ -2869,7 +2882,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>536</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>537</v>
       </c>
@@ -2896,7 +2909,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>538</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
@@ -2929,7 +2942,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>470</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>419</v>
       </c>
@@ -2956,7 +2969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>471</v>
       </c>
@@ -2975,7 +2988,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>33</v>
       </c>
@@ -2989,7 +3002,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>32</v>
       </c>
@@ -3003,7 +3016,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>53</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>541</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>542</v>
       </c>
@@ -3100,7 +3113,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>46</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>420</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>482</v>
       </c>
@@ -3163,7 +3176,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>31</v>
       </c>
@@ -3177,7 +3190,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -3191,7 +3204,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>545</v>
       </c>
@@ -3213,7 +3226,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>546</v>
       </c>
@@ -3221,7 +3234,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>547</v>
       </c>
@@ -3229,44 +3242,44 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>695</v>
+      </c>
+      <c r="E71" t="s">
+        <v>644</v>
+      </c>
+      <c r="H71" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>548</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>549</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>550</v>
-      </c>
-      <c r="C73" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>659</v>
-      </c>
-      <c r="E74" t="s">
-        <v>644</v>
-      </c>
-      <c r="H74" t="s">
-        <v>694</v>
+        <v>550</v>
+      </c>
+      <c r="C74" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E75" t="s">
         <v>644</v>
@@ -3275,142 +3288,142 @@
         <v>694</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>660</v>
+      </c>
+      <c r="E76" t="s">
+        <v>644</v>
+      </c>
+      <c r="H76" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>41</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>186</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>187</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>439</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>422</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>465</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>347</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>84</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>29</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>89</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>348</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>56</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>551</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>165</v>
-      </c>
-      <c r="D82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>55</v>
-      </c>
-      <c r="B83" t="s">
-        <v>552</v>
-      </c>
-      <c r="C83" t="s">
-        <v>167</v>
       </c>
       <c r="D83" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>54</v>
+      </c>
       <c r="B85" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C85" t="s">
-        <v>522</v>
-      </c>
-      <c r="F85" t="s">
-        <v>522</v>
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>656</v>
-      </c>
-      <c r="E86" t="s">
-        <v>644</v>
-      </c>
-      <c r="H86" t="s">
-        <v>694</v>
+        <v>554</v>
+      </c>
+      <c r="C86" t="s">
+        <v>522</v>
+      </c>
+      <c r="F86" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E87" t="s">
         <v>644</v>
@@ -3421,7 +3434,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E88" t="s">
         <v>644</v>
@@ -3430,51 +3443,51 @@
         <v>694</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>658</v>
+      </c>
+      <c r="E89" t="s">
+        <v>644</v>
+      </c>
+      <c r="H89" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>37</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>555</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>195</v>
-      </c>
-      <c r="D89" t="s">
-        <v>106</v>
-      </c>
-      <c r="F89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>40</v>
-      </c>
-      <c r="B90" t="s">
-        <v>556</v>
-      </c>
-      <c r="C90" t="s">
-        <v>189</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
       </c>
+      <c r="F90" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>40</v>
+      </c>
       <c r="B91" t="s">
-        <v>654</v>
-      </c>
-      <c r="E91" t="s">
-        <v>644</v>
-      </c>
-      <c r="H91" t="s">
-        <v>694</v>
+        <v>556</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E92" t="s">
         <v>644</v>
@@ -3483,169 +3496,172 @@
         <v>694</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>655</v>
+      </c>
+      <c r="E93" t="s">
+        <v>644</v>
+      </c>
+      <c r="H93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>478</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>38</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>192</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>193</v>
-      </c>
-      <c r="D94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>39</v>
-      </c>
-      <c r="B95" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" t="s">
-        <v>191</v>
       </c>
       <c r="D95" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>28</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>207</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>135</v>
-      </c>
-      <c r="D96" t="s">
-        <v>203</v>
-      </c>
-      <c r="F96" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>26</v>
-      </c>
-      <c r="B97" t="s">
-        <v>209</v>
-      </c>
-      <c r="C97" t="s">
-        <v>139</v>
       </c>
       <c r="D97" t="s">
         <v>203</v>
       </c>
       <c r="F97" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>59</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>557</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>159</v>
-      </c>
-      <c r="D98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>58</v>
-      </c>
-      <c r="B99" t="s">
-        <v>558</v>
-      </c>
-      <c r="C99" t="s">
-        <v>161</v>
       </c>
       <c r="D99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>58</v>
+      </c>
       <c r="B100" t="s">
+        <v>558</v>
+      </c>
+      <c r="C100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>559</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>560</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>57</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>561</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>163</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>562</v>
-      </c>
-      <c r="C103" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>563</v>
       </c>
       <c r="C104" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C105" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C106" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>446</v>
+        <v>565</v>
       </c>
       <c r="C107" t="s">
         <v>442</v>
@@ -3653,345 +3669,345 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>446</v>
+      </c>
+      <c r="C108" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>653</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>644</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H109" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>503</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>424</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>467</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>27</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>208</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>137</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>203</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>36</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>196</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>197</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>106</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>566</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>508</v>
-      </c>
-      <c r="D114" t="s">
-        <v>509</v>
-      </c>
-      <c r="E114">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>386</v>
-      </c>
-      <c r="G114" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>567</v>
-      </c>
-      <c r="C115" t="s">
-        <v>512</v>
       </c>
       <c r="D115" t="s">
         <v>509</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
       <c r="G115" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>567</v>
+      </c>
+      <c r="C116" t="s">
+        <v>512</v>
+      </c>
+      <c r="D116" t="s">
+        <v>509</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>513</v>
+      </c>
+      <c r="G116" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>60</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>568</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>97</v>
-      </c>
-      <c r="D116" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>61</v>
-      </c>
-      <c r="B117" t="s">
-        <v>569</v>
-      </c>
-      <c r="C117" t="s">
-        <v>99</v>
       </c>
       <c r="D117" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>61</v>
+      </c>
       <c r="B118" t="s">
+        <v>569</v>
+      </c>
+      <c r="C118" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>570</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>515</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>571</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>572</v>
-      </c>
-      <c r="C120" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>573</v>
       </c>
       <c r="C121" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C122" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>411</v>
+        <v>574</v>
       </c>
       <c r="C123" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>411</v>
+      </c>
+      <c r="C124" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>448</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>501</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>499</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>497</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>436</v>
-      </c>
-      <c r="C128" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>435</v>
       </c>
       <c r="C129" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>435</v>
+      </c>
+      <c r="C130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>86</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>575</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>125</v>
-      </c>
-      <c r="D130" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>87</v>
-      </c>
-      <c r="B131" t="s">
-        <v>576</v>
-      </c>
-      <c r="C131" t="s">
-        <v>123</v>
       </c>
       <c r="D131" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>87</v>
+      </c>
       <c r="B132" t="s">
+        <v>576</v>
+      </c>
+      <c r="C132" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>577</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>516</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>64</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>578</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>101</v>
-      </c>
-      <c r="D133" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>62</v>
-      </c>
-      <c r="B134" t="s">
-        <v>579</v>
-      </c>
-      <c r="C134" t="s">
-        <v>100</v>
       </c>
       <c r="D134" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>62</v>
+      </c>
       <c r="B135" t="s">
+        <v>579</v>
+      </c>
+      <c r="C135" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>652</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>644</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H136" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>580</v>
-      </c>
-      <c r="C136" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>581</v>
       </c>
       <c r="C137" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C138" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>415</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
@@ -3999,18 +4015,15 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>650</v>
-      </c>
-      <c r="E140" t="s">
-        <v>644</v>
-      </c>
-      <c r="H140" t="s">
-        <v>694</v>
+        <v>415</v>
+      </c>
+      <c r="C140" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E141" t="s">
         <v>644</v>
@@ -4019,177 +4032,168 @@
         <v>694</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>651</v>
+      </c>
+      <c r="E142" t="s">
+        <v>644</v>
+      </c>
+      <c r="H142" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>35</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>198</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>199</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>24</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>211</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>142</v>
-      </c>
-      <c r="D143" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>21</v>
-      </c>
-      <c r="B144" t="s">
-        <v>214</v>
-      </c>
-      <c r="C144" t="s">
-        <v>147</v>
       </c>
       <c r="D144" t="s">
         <v>203</v>
       </c>
-      <c r="F144" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D145" t="s">
         <v>203</v>
       </c>
       <c r="F145" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" t="s">
+        <v>203</v>
+      </c>
+      <c r="F146" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>88</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>583</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>121</v>
-      </c>
-      <c r="D146" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>89</v>
-      </c>
-      <c r="B147" t="s">
-        <v>584</v>
-      </c>
-      <c r="C147" t="s">
-        <v>119</v>
       </c>
       <c r="D147" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>89</v>
+      </c>
       <c r="B148" t="s">
+        <v>584</v>
+      </c>
+      <c r="C148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>585</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>586</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>65</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>587</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>157</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>588</v>
-      </c>
-      <c r="C151" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>589</v>
-      </c>
-      <c r="C152" t="s">
-        <v>371</v>
-      </c>
-      <c r="D152" t="s">
-        <v>362</v>
-      </c>
-      <c r="E152">
-        <v>47</v>
-      </c>
-      <c r="F152" t="s">
-        <v>225</v>
-      </c>
-      <c r="H152" t="s">
-        <v>694</v>
+        <v>696</v>
+      </c>
+      <c r="E152" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C153" t="s">
-        <v>375</v>
-      </c>
-      <c r="D153" t="s">
-        <v>362</v>
-      </c>
-      <c r="E153">
-        <v>44</v>
-      </c>
-      <c r="F153" t="s">
-        <v>223</v>
-      </c>
-      <c r="H153" t="s">
-        <v>694</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>647</v>
+        <v>589</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" t="s">
+        <v>362</v>
+      </c>
+      <c r="E154">
+        <v>47</v>
+      </c>
+      <c r="F154" t="s">
+        <v>225</v>
       </c>
       <c r="H154" t="s">
         <v>694</v>
@@ -4197,7 +4201,19 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>648</v>
+        <v>590</v>
+      </c>
+      <c r="C155" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" t="s">
+        <v>362</v>
+      </c>
+      <c r="E155">
+        <v>44</v>
+      </c>
+      <c r="F155" t="s">
+        <v>223</v>
       </c>
       <c r="H155" t="s">
         <v>694</v>
@@ -4205,132 +4221,123 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>649</v>
-      </c>
-      <c r="E156" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H156" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
+        <v>648</v>
+      </c>
+      <c r="H157" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>649</v>
+      </c>
+      <c r="E158" t="s">
+        <v>644</v>
+      </c>
+      <c r="H158" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>426</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>462</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>25</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B161" t="s">
         <v>210</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C161" t="s">
         <v>141</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D161" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>20</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>215</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C162" t="s">
         <v>149</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D162" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>90</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B163" t="s">
         <v>591</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C163" t="s">
         <v>117</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D163" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>91</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B164" t="s">
         <v>592</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>115</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D164" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>698</v>
+      </c>
+      <c r="E165" t="s">
+        <v>644</v>
+      </c>
+      <c r="H165" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>66</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B166" t="s">
         <v>593</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C166" t="s">
         <v>155</v>
-      </c>
-      <c r="D163" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>594</v>
-      </c>
-      <c r="C164" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>71</v>
-      </c>
-      <c r="B165" t="s">
-        <v>595</v>
-      </c>
-      <c r="C165" t="s">
-        <v>146</v>
-      </c>
-      <c r="D165" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>82</v>
-      </c>
-      <c r="B166" t="s">
-        <v>596</v>
-      </c>
-      <c r="C166" t="s">
-        <v>133</v>
       </c>
       <c r="D166" t="s">
         <v>106</v>
@@ -4338,1711 +4345,1752 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C167" t="s">
-        <v>373</v>
-      </c>
-      <c r="D167" t="s">
-        <v>362</v>
-      </c>
-      <c r="E167">
-        <v>45</v>
-      </c>
-      <c r="F167" t="s">
-        <v>224</v>
-      </c>
-      <c r="H167" t="s">
-        <v>694</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>405</v>
-      </c>
-      <c r="C168" t="s">
-        <v>406</v>
-      </c>
-      <c r="D168" t="s">
-        <v>362</v>
-      </c>
-      <c r="E168">
-        <v>24</v>
-      </c>
-      <c r="F168" t="s">
-        <v>252</v>
+        <v>697</v>
+      </c>
+      <c r="E168" t="s">
+        <v>644</v>
       </c>
       <c r="H168" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>71</v>
+      </c>
       <c r="B169" t="s">
+        <v>595</v>
+      </c>
+      <c r="C169" t="s">
+        <v>146</v>
+      </c>
+      <c r="D169" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>82</v>
+      </c>
+      <c r="B170" t="s">
+        <v>596</v>
+      </c>
+      <c r="C170" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>597</v>
+      </c>
+      <c r="C171" t="s">
+        <v>373</v>
+      </c>
+      <c r="D171" t="s">
+        <v>362</v>
+      </c>
+      <c r="E171">
+        <v>45</v>
+      </c>
+      <c r="F171" t="s">
+        <v>224</v>
+      </c>
+      <c r="H171" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>405</v>
+      </c>
+      <c r="C172" t="s">
+        <v>406</v>
+      </c>
+      <c r="D172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E172">
+        <v>24</v>
+      </c>
+      <c r="F172" t="s">
+        <v>252</v>
+      </c>
+      <c r="H172" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>398</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C173" t="s">
         <v>399</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D173" t="s">
         <v>362</v>
       </c>
-      <c r="E169">
+      <c r="E173">
         <v>31</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F173" t="s">
         <v>207</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H173" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>646</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E174" t="s">
         <v>644</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H174" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>19</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B175" t="s">
         <v>216</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C175" t="s">
         <v>151</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D175" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>23</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B176" t="s">
         <v>212</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C176" t="s">
         <v>144</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D176" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>10</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B177" t="s">
         <v>223</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C177" t="s">
         <v>165</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D177" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>11</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B178" t="s">
         <v>222</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C178" t="s">
         <v>163</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D178" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>92</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B179" t="s">
         <v>598</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C179" t="s">
         <v>105</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D179" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>93</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B180" t="s">
         <v>642</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C180" t="s">
         <v>103</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D180" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>641</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C181" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>640</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C182" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>639</v>
-      </c>
-      <c r="C179" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>67</v>
-      </c>
-      <c r="B180" t="s">
-        <v>638</v>
-      </c>
-      <c r="C180" t="s">
-        <v>153</v>
-      </c>
-      <c r="D180" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>76</v>
-      </c>
-      <c r="B181" t="s">
-        <v>637</v>
-      </c>
-      <c r="C181" t="s">
-        <v>141</v>
-      </c>
-      <c r="D181" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>77</v>
-      </c>
-      <c r="B182" t="s">
-        <v>636</v>
-      </c>
-      <c r="C182" t="s">
-        <v>139</v>
-      </c>
-      <c r="D182" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C183" t="s">
-        <v>390</v>
-      </c>
-      <c r="D183" t="s">
-        <v>362</v>
-      </c>
-      <c r="E183">
-        <v>21</v>
-      </c>
-      <c r="F183" t="s">
-        <v>261</v>
-      </c>
-      <c r="H183" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>126</v>
+        <v>638</v>
       </c>
       <c r="C184" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D184" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>76</v>
+      </c>
       <c r="B185" t="s">
+        <v>637</v>
+      </c>
+      <c r="C185" t="s">
+        <v>141</v>
+      </c>
+      <c r="D185" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>77</v>
+      </c>
+      <c r="B186" t="s">
+        <v>636</v>
+      </c>
+      <c r="C186" t="s">
+        <v>139</v>
+      </c>
+      <c r="D186" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>635</v>
+      </c>
+      <c r="C187" t="s">
+        <v>390</v>
+      </c>
+      <c r="D187" t="s">
+        <v>362</v>
+      </c>
+      <c r="E187">
+        <v>21</v>
+      </c>
+      <c r="F187" t="s">
+        <v>261</v>
+      </c>
+      <c r="H187" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>85</v>
+      </c>
+      <c r="B188" t="s">
+        <v>126</v>
+      </c>
+      <c r="C188" t="s">
+        <v>127</v>
+      </c>
+      <c r="D188" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>400</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C189" t="s">
         <v>401</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D189" t="s">
         <v>362</v>
       </c>
-      <c r="E185">
+      <c r="E189">
         <v>30</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F189" t="s">
         <v>231</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H189" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>645</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E190" t="s">
         <v>644</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H190" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>428</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C191" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>464</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C192" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>8</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B193" t="s">
         <v>94</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D193" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>9</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B194" t="s">
         <v>96</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D194" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>94</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B195" t="s">
         <v>634</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C195" t="s">
         <v>113</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D195" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>95</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B196" t="s">
         <v>633</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C196" t="s">
         <v>111</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D196" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>68</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B197" t="s">
         <v>632</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C197" t="s">
         <v>151</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D197" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>631</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C198" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>69</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B199" t="s">
         <v>630</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C199" t="s">
         <v>149</v>
-      </c>
-      <c r="D195" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>72</v>
-      </c>
-      <c r="B196" t="s">
-        <v>629</v>
-      </c>
-      <c r="C196" t="s">
-        <v>144</v>
-      </c>
-      <c r="D196" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>628</v>
-      </c>
-      <c r="C197" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>81</v>
-      </c>
-      <c r="B198" t="s">
-        <v>627</v>
-      </c>
-      <c r="C198" t="s">
-        <v>135</v>
-      </c>
-      <c r="D198" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>83</v>
-      </c>
-      <c r="B199" t="s">
-        <v>626</v>
-      </c>
-      <c r="C199" t="s">
-        <v>131</v>
       </c>
       <c r="D199" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>72</v>
+      </c>
       <c r="B200" t="s">
+        <v>629</v>
+      </c>
+      <c r="C200" t="s">
+        <v>144</v>
+      </c>
+      <c r="D200" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>628</v>
+      </c>
+      <c r="C201" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>81</v>
+      </c>
+      <c r="B202" t="s">
+        <v>627</v>
+      </c>
+      <c r="C202" t="s">
+        <v>135</v>
+      </c>
+      <c r="D202" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>83</v>
+      </c>
+      <c r="B203" t="s">
+        <v>626</v>
+      </c>
+      <c r="C203" t="s">
+        <v>131</v>
+      </c>
+      <c r="D203" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>430</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C204" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>13</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B205" t="s">
         <v>220</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C205" t="s">
         <v>159</v>
-      </c>
-      <c r="D201" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>16</v>
-      </c>
-      <c r="B202" t="s">
-        <v>219</v>
-      </c>
-      <c r="C202" t="s">
-        <v>157</v>
-      </c>
-      <c r="D202" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>643</v>
-      </c>
-      <c r="E203" t="s">
-        <v>644</v>
-      </c>
-      <c r="H203" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>17</v>
-      </c>
-      <c r="B204" t="s">
-        <v>217</v>
-      </c>
-      <c r="C204" t="s">
-        <v>153</v>
-      </c>
-      <c r="D204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>225</v>
-      </c>
-      <c r="C205" t="s">
-        <v>169</v>
       </c>
       <c r="D205" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C206" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D206" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>643</v>
+      </c>
+      <c r="E207" t="s">
+        <v>644</v>
+      </c>
+      <c r="H207" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s">
+        <v>217</v>
+      </c>
+      <c r="C208" t="s">
+        <v>153</v>
+      </c>
+      <c r="D208" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>225</v>
+      </c>
+      <c r="C209" t="s">
+        <v>169</v>
+      </c>
+      <c r="D209" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>224</v>
+      </c>
+      <c r="C210" t="s">
+        <v>167</v>
+      </c>
+      <c r="D210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>96</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B211" t="s">
         <v>625</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C211" t="s">
         <v>109</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D211" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>97</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B212" t="s">
         <v>624</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C212" t="s">
         <v>107</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D212" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>70</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B213" t="s">
         <v>623</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C213" t="s">
         <v>147</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D213" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>622</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C214" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>621</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C215" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>75</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B216" t="s">
         <v>620</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C216" t="s">
         <v>142</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D216" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
         <v>619</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C217" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>80</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B218" t="s">
         <v>618</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C218" t="s">
         <v>137</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D218" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>84</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B219" t="s">
         <v>617</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C219" t="s">
         <v>129</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D219" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
         <v>458</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C220" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>12</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B221" t="s">
         <v>221</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C221" t="s">
         <v>161</v>
-      </c>
-      <c r="D217" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>431</v>
-      </c>
-      <c r="C218" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>460</v>
-      </c>
-      <c r="C219" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>17</v>
-      </c>
-      <c r="B220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C220" t="s">
-        <v>155</v>
-      </c>
-      <c r="D220" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>4</v>
-      </c>
-      <c r="B221" t="s">
-        <v>227</v>
-      </c>
-      <c r="C221" t="s">
-        <v>173</v>
       </c>
       <c r="D221" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>431</v>
+      </c>
+      <c r="C222" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>460</v>
+      </c>
+      <c r="C223" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s">
+        <v>218</v>
+      </c>
+      <c r="C224" t="s">
+        <v>155</v>
+      </c>
+      <c r="D224" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" t="s">
+        <v>173</v>
+      </c>
+      <c r="D225" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>5</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B226" t="s">
         <v>226</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C226" t="s">
         <v>171</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D226" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>98</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B227" t="s">
         <v>616</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C227" t="s">
         <v>276</v>
-      </c>
-      <c r="D223" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>615</v>
-      </c>
-      <c r="C224" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>100</v>
-      </c>
-      <c r="B225" t="s">
-        <v>614</v>
-      </c>
-      <c r="C225" t="s">
-        <v>270</v>
-      </c>
-      <c r="D225" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>102</v>
-      </c>
-      <c r="B226" t="s">
-        <v>613</v>
-      </c>
-      <c r="C226" t="s">
-        <v>240</v>
-      </c>
-      <c r="D226" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>104</v>
-      </c>
-      <c r="B227" t="s">
-        <v>612</v>
-      </c>
-      <c r="C227" t="s">
-        <v>250</v>
       </c>
       <c r="D227" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>108</v>
-      </c>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C228" t="s">
-        <v>256</v>
-      </c>
-      <c r="D228" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B229" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C229" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D229" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B230" t="s">
-        <v>609</v>
+        <v>613</v>
+      </c>
+      <c r="C230" t="s">
+        <v>240</v>
       </c>
       <c r="D230" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B231" t="s">
-        <v>608</v>
+        <v>612</v>
+      </c>
+      <c r="C231" t="s">
+        <v>250</v>
       </c>
       <c r="D231" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B232" t="s">
-        <v>266</v>
+        <v>611</v>
       </c>
       <c r="C232" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D232" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
+        <v>110</v>
+      </c>
+      <c r="B233" t="s">
+        <v>610</v>
+      </c>
+      <c r="C233" t="s">
+        <v>262</v>
+      </c>
+      <c r="D233" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>112</v>
+      </c>
+      <c r="B234" t="s">
+        <v>609</v>
+      </c>
+      <c r="D234" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>114</v>
+      </c>
+      <c r="B235" t="s">
+        <v>608</v>
+      </c>
+      <c r="D235" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>116</v>
+      </c>
+      <c r="B236" t="s">
+        <v>266</v>
+      </c>
+      <c r="C236" t="s">
+        <v>267</v>
+      </c>
+      <c r="D236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>118</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B237" t="s">
         <v>237</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C237" t="s">
         <v>199</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D237" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>120</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B238" t="s">
         <v>235</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C238" t="s">
         <v>195</v>
-      </c>
-      <c r="D234" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>122</v>
-      </c>
-      <c r="B235" t="s">
-        <v>233</v>
-      </c>
-      <c r="C235" t="s">
-        <v>191</v>
-      </c>
-      <c r="D235" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>124</v>
-      </c>
-      <c r="B236" t="s">
-        <v>231</v>
-      </c>
-      <c r="C236" t="s">
-        <v>187</v>
-      </c>
-      <c r="D236" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>433</v>
-      </c>
-      <c r="C237" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>3</v>
-      </c>
-      <c r="B238" t="s">
-        <v>228</v>
-      </c>
-      <c r="C238" t="s">
-        <v>175</v>
       </c>
       <c r="D238" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>122</v>
+      </c>
       <c r="B239" t="s">
+        <v>233</v>
+      </c>
+      <c r="C239" t="s">
+        <v>191</v>
+      </c>
+      <c r="D239" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>124</v>
+      </c>
+      <c r="B240" t="s">
+        <v>231</v>
+      </c>
+      <c r="C240" t="s">
+        <v>187</v>
+      </c>
+      <c r="D240" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>433</v>
+      </c>
+      <c r="C241" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>228</v>
+      </c>
+      <c r="C242" t="s">
+        <v>175</v>
+      </c>
+      <c r="D242" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
         <v>607</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C243" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>99</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B244" t="s">
         <v>599</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C244" t="s">
         <v>273</v>
-      </c>
-      <c r="D240" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>101</v>
-      </c>
-      <c r="B241" t="s">
-        <v>600</v>
-      </c>
-      <c r="C241" t="s">
-        <v>244</v>
-      </c>
-      <c r="D241" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>103</v>
-      </c>
-      <c r="B242" t="s">
-        <v>601</v>
-      </c>
-      <c r="C242" t="s">
-        <v>247</v>
-      </c>
-      <c r="D242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>105</v>
-      </c>
-      <c r="B243" t="s">
-        <v>602</v>
-      </c>
-      <c r="C243" t="s">
-        <v>253</v>
-      </c>
-      <c r="D243" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>109</v>
-      </c>
-      <c r="B244" t="s">
-        <v>603</v>
-      </c>
-      <c r="C244" t="s">
-        <v>259</v>
       </c>
       <c r="D244" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B245" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C245" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="D245" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
+        <v>103</v>
+      </c>
+      <c r="B246" t="s">
+        <v>601</v>
+      </c>
+      <c r="C246" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>105</v>
+      </c>
+      <c r="B247" t="s">
+        <v>602</v>
+      </c>
+      <c r="C247" t="s">
+        <v>253</v>
+      </c>
+      <c r="D247" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>109</v>
+      </c>
+      <c r="B248" t="s">
+        <v>603</v>
+      </c>
+      <c r="C248" t="s">
+        <v>259</v>
+      </c>
+      <c r="D248" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>111</v>
+      </c>
+      <c r="B249" t="s">
+        <v>604</v>
+      </c>
+      <c r="C249" t="s">
+        <v>170</v>
+      </c>
+      <c r="D249" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>113</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B250" t="s">
         <v>605</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D250" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
         <v>606</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C251" t="s">
         <v>361</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D251" t="s">
         <v>362</v>
       </c>
-      <c r="E247">
+      <c r="E251">
         <v>16</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F251" t="s">
         <v>234</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H251" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>117</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B252" t="s">
         <v>238</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C252" t="s">
         <v>201</v>
-      </c>
-      <c r="D248" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>119</v>
-      </c>
-      <c r="B249" t="s">
-        <v>236</v>
-      </c>
-      <c r="C249" t="s">
-        <v>197</v>
-      </c>
-      <c r="D249" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>121</v>
-      </c>
-      <c r="B250" t="s">
-        <v>234</v>
-      </c>
-      <c r="C250" t="s">
-        <v>193</v>
-      </c>
-      <c r="D250" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>123</v>
-      </c>
-      <c r="B251" t="s">
-        <v>232</v>
-      </c>
-      <c r="C251" t="s">
-        <v>189</v>
-      </c>
-      <c r="D251" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252" t="s">
-        <v>230</v>
-      </c>
-      <c r="C252" t="s">
-        <v>185</v>
       </c>
       <c r="D252" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B253" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C253" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D253" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>121</v>
+      </c>
       <c r="B254" t="s">
+        <v>234</v>
+      </c>
+      <c r="C254" t="s">
+        <v>193</v>
+      </c>
+      <c r="D254" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>123</v>
+      </c>
+      <c r="B255" t="s">
+        <v>232</v>
+      </c>
+      <c r="C255" t="s">
+        <v>189</v>
+      </c>
+      <c r="D255" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>230</v>
+      </c>
+      <c r="C256" t="s">
+        <v>185</v>
+      </c>
+      <c r="D256" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>229</v>
+      </c>
+      <c r="C257" t="s">
+        <v>183</v>
+      </c>
+      <c r="D257" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
         <v>461</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C258" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>14</v>
-      </c>
-      <c r="C255" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>15</v>
-      </c>
-      <c r="C256" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>106</v>
-      </c>
-      <c r="C257" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>107</v>
-      </c>
-      <c r="C258" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>48</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C260" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C261" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C262" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C263" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C264" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
+        <v>78</v>
+      </c>
+      <c r="C265" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>79</v>
+      </c>
+      <c r="C266" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>74</v>
+      </c>
+      <c r="C267" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>73</v>
+      </c>
+      <c r="C268" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>63</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C269" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
         <v>363</v>
-      </c>
-      <c r="D266" t="s">
-        <v>362</v>
-      </c>
-      <c r="E266">
-        <v>18</v>
-      </c>
-      <c r="F266" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
-        <v>364</v>
-      </c>
-      <c r="D267" t="s">
-        <v>362</v>
-      </c>
-      <c r="E267">
-        <v>15</v>
-      </c>
-      <c r="F267" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C268" t="s">
-        <v>365</v>
-      </c>
-      <c r="D268" t="s">
-        <v>362</v>
-      </c>
-      <c r="E268">
-        <v>39</v>
-      </c>
-      <c r="F268" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C269" t="s">
-        <v>366</v>
-      </c>
-      <c r="D269" t="s">
-        <v>362</v>
-      </c>
-      <c r="E269">
-        <v>53</v>
-      </c>
-      <c r="F269" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C270" t="s">
-        <v>367</v>
       </c>
       <c r="D270" t="s">
         <v>362</v>
       </c>
       <c r="E270">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F270" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D271" t="s">
         <v>362</v>
       </c>
       <c r="E271">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F271" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D272" t="s">
         <v>362</v>
       </c>
       <c r="E272">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F272" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="273" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D273" t="s">
         <v>362</v>
       </c>
       <c r="E273">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F273" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="274" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D274" t="s">
         <v>362</v>
       </c>
       <c r="E274">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F274" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="275" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D275" t="s">
         <v>362</v>
       </c>
       <c r="E275">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F275" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="276" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D276" t="s">
         <v>362</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F276" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="277" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D277" t="s">
         <v>362</v>
       </c>
       <c r="E277">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F277" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="278" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D278" t="s">
         <v>362</v>
       </c>
       <c r="E278">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F278" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="279" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D279" t="s">
         <v>362</v>
       </c>
       <c r="E279">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F279" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="280" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D280" t="s">
         <v>362</v>
       </c>
       <c r="E280">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="281" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D281" t="s">
         <v>362</v>
       </c>
       <c r="E281">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F281" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="282" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D282" t="s">
         <v>362</v>
       </c>
       <c r="E282">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F282" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="283" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D283" t="s">
         <v>362</v>
       </c>
       <c r="E283">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F283" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="284" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D284" t="s">
         <v>362</v>
       </c>
       <c r="E284">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F284" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="285" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D285" t="s">
         <v>362</v>
       </c>
       <c r="E285">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F285" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="286" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D286" t="s">
         <v>362</v>
       </c>
       <c r="E286">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F286" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="287" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D287" t="s">
         <v>362</v>
       </c>
       <c r="E287">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="288" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F287" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D288" t="s">
         <v>362</v>
       </c>
       <c r="E288">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F288" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="289" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D289" t="s">
         <v>362</v>
       </c>
       <c r="E289">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="290" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D290" t="s">
         <v>362</v>
       </c>
       <c r="E290">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F290" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="291" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D291" t="s">
         <v>362</v>
       </c>
       <c r="E291">
-        <v>33</v>
-      </c>
-      <c r="F291" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="292" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D292" t="s">
         <v>362</v>
       </c>
       <c r="E292">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F292" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="293" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D293" t="s">
         <v>362</v>
       </c>
       <c r="E293">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F293" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="294" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D294" t="s">
         <v>362</v>
       </c>
       <c r="E294">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F294" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="295" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D295" t="s">
         <v>362</v>
       </c>
       <c r="E295">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F295" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="296" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D296" t="s">
         <v>362</v>
       </c>
       <c r="E296">
+        <v>32</v>
+      </c>
+      <c r="F296" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>402</v>
+      </c>
+      <c r="D297" t="s">
+        <v>362</v>
+      </c>
+      <c r="E297">
+        <v>29</v>
+      </c>
+      <c r="F297" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>403</v>
+      </c>
+      <c r="D298" t="s">
+        <v>362</v>
+      </c>
+      <c r="E298">
+        <v>26</v>
+      </c>
+      <c r="F298" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>404</v>
+      </c>
+      <c r="D299" t="s">
+        <v>362</v>
+      </c>
+      <c r="E299">
+        <v>25</v>
+      </c>
+      <c r="F299" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>407</v>
+      </c>
+      <c r="D300" t="s">
+        <v>362</v>
+      </c>
+      <c r="E300">
         <v>23</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F300" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="297" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E297">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E301">
         <v>4</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F301" t="s">
         <v>355</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G301" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="298" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E298">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E302">
         <v>8</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F302" t="s">
         <v>354</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G302" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="299" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E299">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E303">
         <v>3</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F303" t="s">
         <v>523</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G303" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="300" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E300">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E304">
         <v>7</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F304" t="s">
         <v>524</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G304" t="s">
         <v>510</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H300">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:H304"/>
   <sortState ref="A3:J255">
     <sortCondition ref="B3:B255"/>
   </sortState>
